--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2740.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2740.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158650552886628</v>
+        <v>1.215935230255127</v>
       </c>
       <c r="B1">
-        <v>2.40444397891729</v>
+        <v>2.293593645095825</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.956059217453003</v>
       </c>
       <c r="D1">
-        <v>2.371102628340721</v>
+        <v>3.586608648300171</v>
       </c>
       <c r="E1">
-        <v>1.221164827994882</v>
+        <v>1.585543155670166</v>
       </c>
     </row>
   </sheetData>
